--- a/Training/LSTM_BTC_result1.xlsx
+++ b/Training/LSTM_BTC_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>404.9389493985666</v>
+        <v>455.4067930230596</v>
       </c>
       <c r="F1" t="n">
-        <v>343.6649172295271</v>
+        <v>394.6326369577556</v>
       </c>
       <c r="G1" t="n">
-        <v>1.764408631992459</v>
+        <v>2.03277572631054</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>333.2710682537069</v>
+        <v>429.315007328252</v>
       </c>
       <c r="F2" t="n">
-        <v>278.0390407961099</v>
+        <v>366.369280510576</v>
       </c>
       <c r="G2" t="n">
-        <v>1.414952916674864</v>
+        <v>1.888526118726293</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>453.8310669281656</v>
+        <v>429.1014065499782</v>
       </c>
       <c r="F3" t="n">
-        <v>391.912255020713</v>
+        <v>372.4943517492232</v>
       </c>
       <c r="G3" t="n">
-        <v>2.031448568016485</v>
+        <v>1.920745115359905</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>398.0717656769985</v>
+        <v>408.4611204478023</v>
       </c>
       <c r="F4" t="n">
-        <v>335.3213128076976</v>
+        <v>351.6231000836525</v>
       </c>
       <c r="G4" t="n">
-        <v>1.735633664360191</v>
+        <v>1.816019211201086</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>386.8907811716379</v>
+        <v>408.1023329436844</v>
       </c>
       <c r="F5" t="n">
-        <v>327.1455636557404</v>
+        <v>344.6783291034303</v>
       </c>
       <c r="G5" t="n">
-        <v>1.693092143556501</v>
+        <v>1.790578766681609</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>441.1755051853553</v>
+        <v>483.8250592933275</v>
       </c>
       <c r="F6" t="n">
-        <v>388.8681495782304</v>
+        <v>429.376001292125</v>
       </c>
       <c r="G6" t="n">
-        <v>2.01421653995263</v>
+        <v>2.213983706140622</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>395.1041805839776</v>
+        <v>497.7148287983183</v>
       </c>
       <c r="F7" t="n">
-        <v>307.9466872898654</v>
+        <v>440.959837588134</v>
       </c>
       <c r="G7" t="n">
-        <v>1.581520030182397</v>
+        <v>2.288030458829565</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>406.2086033697782</v>
+        <v>342.2456872953408</v>
       </c>
       <c r="F8" t="n">
-        <v>344.1892680115281</v>
+        <v>287.5695438052704</v>
       </c>
       <c r="G8" t="n">
-        <v>1.788539360390665</v>
+        <v>1.478241534113589</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>496.7610031985911</v>
+        <v>450.7328889541342</v>
       </c>
       <c r="F9" t="n">
-        <v>437.1187426978272</v>
+        <v>399.5454225173285</v>
       </c>
       <c r="G9" t="n">
-        <v>2.261839513508248</v>
+        <v>2.070988307673572</v>
       </c>
     </row>
   </sheetData>
